--- a/JAS BlastShieldBOM.xlsx
+++ b/JAS BlastShieldBOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Projects\Blast-Shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A57669-3A54-4286-93D1-EC0343594B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443AA69-EC64-4B49-AF20-450E4A0229DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1920" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="2265" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
